--- a/biology/Botanique/Canaiolo/Canaiolo.xlsx
+++ b/biology/Botanique/Canaiolo/Canaiolo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le canaiolo nero est un cépage rouge présent en Italie. Il entre dans la composition du Chianti à hauteur de 5 à 10 % avec le Sangiovese et le Mammolo ainsi que dans celle du Vino Nobile di Montepulciano.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que résistant et productif, sa culture a régressé après l'épidémie de phylloxéra, car il se greffe mal.
 Son raisin est légèrement amer. Moins tannique que la Sangiovese et moins parfumé que le Mammolo, il contribue essentiellement pour sa couleur.
